--- a/客户/东兰摩托装监控20211228.xlsx
+++ b/客户/东兰摩托装监控20211228.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="123" windowWidth="22725" windowHeight="12159" activeTab="0" tabRatio="618"/>
+    <workbookView xWindow="105" yWindow="108" windowWidth="22710" windowHeight="12143" activeTab="0" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId2"/>
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
-  <si>
-    <t>东兰摩托</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>名称</t>
   </si>
@@ -38,27 +35,12 @@
     <t xml:space="preserve">金额 </t>
   </si>
   <si>
-    <t>成本价</t>
-  </si>
-  <si>
-    <t>成本价2</t>
-  </si>
-  <si>
-    <t>利润</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>网线</t>
   </si>
   <si>
     <t>箱</t>
   </si>
   <si>
-    <t>270米一箱</t>
-  </si>
-  <si>
     <t>摄像头</t>
   </si>
   <si>
@@ -68,21 +50,9 @@
     <t>个</t>
   </si>
   <si>
-    <t>160*2</t>
-  </si>
-  <si>
     <t>海康400万星光，枪机</t>
   </si>
   <si>
-    <t>海康200万红外，枪机</t>
-  </si>
-  <si>
-    <t>100*2</t>
-  </si>
-  <si>
-    <t>海康400万红外，半球(可插SD卡）</t>
-  </si>
-  <si>
     <t>监控机</t>
   </si>
   <si>
@@ -105,20 +75,25 @@
   </si>
   <si>
     <t>19⼨</t>
+  </si>
+  <si>
+    <t>合计：</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0%"/>
     <numFmt numFmtId="177" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ ¥* #,##0_ ;_ ¥* -#,##0_ ;_ ¥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * -#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="21">
+  <fonts count="38" x14ac:knownFonts="38">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -246,11 +221,121 @@
     </font>
     <font>
       <sz val="12.0"/>
+      <color rgb="FF9C0006"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF006100"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF9C6500"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <color rgb="FF1F497D"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <color rgb="FF1F497D"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="13.0"/>
+      <color rgb="FF1F497D"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF1F497D"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="64">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,8 +528,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4DFEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCC0DA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7DEE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95B3D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA9694"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D79B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1A0C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92CDDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABF8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0504D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BBB59"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8064A2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BACC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -574,13 +845,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFA7BFDE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF95B3D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -750,6 +1188,162 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" applyFont="1" fillId="0" applyBorder="1" borderId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" applyFont="1" fillId="33" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" applyFont="1" fillId="34" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" applyFont="1" fillId="35" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" applyFont="1" fillId="36" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" applyFont="1" fillId="37" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" applyFont="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" applyFont="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" applyFont="1" fillId="0" borderId="13" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" applyFont="1" fillId="36" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" applyFont="1" fillId="38" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" applyFill="1" borderId="16" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" applyFont="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="0" borderId="17" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="18" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="19" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="0" borderId="20" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="40" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="41" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="42" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="43" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="44" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="45" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="46" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="47" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="48" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="49" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="50" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="51" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="52" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="53" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="54" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="55" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="56" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="57" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="58" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="59" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="60" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="61" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="62" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="63" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" borderId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" applyFont="1" fillId="0" borderId="23" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" applyBorder="1" borderId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" applyBorder="1" borderId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" applyBorder="1" borderId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -766,338 +1360,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+  <sheetPr>
+    <outlinePr showOutlineSymbols="1"/>
+  </sheetPr>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="P14" activeCellId="0" sqref="P14"/>
+      <selection activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.000137329101562" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="14" width="9.0"/>
+    <col min="1" max="10" width="9.0"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C8" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C9" s="52" t="s">
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C9" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="E9" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="F9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="G9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="H9" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="I9" s="107"/>
+      <c r="J9" s="52"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C10" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="D10" s="105">
+        <v>0.48</v>
+      </c>
+      <c r="E10" s="105">
+        <v>1</v>
+      </c>
+      <c r="F10" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="52" t="s">
+      <c r="G10" s="105">
+        <v>400</v>
+      </c>
+      <c r="H10" s="105">
+        <v>400</v>
+      </c>
+      <c r="I10" s="107"/>
+      <c r="J10" s="52"/>
+    </row>
+    <row r="11" spans="1:10" ht="28.499565" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52" t="s">
+      <c r="D11" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="52" t="s">
+      <c r="E11" s="105">
+        <v>2</v>
+      </c>
+      <c r="F11" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="52"/>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C10" s="52" t="s">
+      <c r="G11" s="105">
+        <v>200</v>
+      </c>
+      <c r="H11" s="105">
+        <v>400</v>
+      </c>
+      <c r="I11" s="107"/>
+      <c r="J11" s="52"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.499565" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="55">
-        <v>0.48</v>
-      </c>
-      <c r="E10" s="55">
-        <v>2</v>
-      </c>
-      <c r="F10" s="52" t="s">
+      <c r="E12" s="105">
+        <v>1</v>
+      </c>
+      <c r="F12" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="105">
+        <v>200</v>
+      </c>
+      <c r="H12" s="105">
+        <v>200</v>
+      </c>
+      <c r="I12" s="107"/>
+      <c r="J12" s="52"/>
+    </row>
+    <row r="13" spans="1:10" ht="71.24892" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="55">
-        <v>600</v>
-      </c>
-      <c r="H10" s="55">
-        <v>600</v>
-      </c>
-      <c r="I10" s="55">
-        <v>240</v>
-      </c>
-      <c r="J10" s="55">
-        <v>240</v>
-      </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52" t="s">
+      <c r="D13" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="52"/>
-    </row>
-    <row r="11" spans="1:14" ht="28.499565" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="52" t="s">
+      <c r="E13" s="105">
+        <v>1</v>
+      </c>
+      <c r="F13" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="G13" s="105">
+        <v>300</v>
+      </c>
+      <c r="H13" s="105">
+        <v>300</v>
+      </c>
+      <c r="I13" s="107"/>
+      <c r="J13" s="52"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C14" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="55">
-        <v>2</v>
-      </c>
-      <c r="F11" s="52" t="s">
+      <c r="D14" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="55">
-        <v>200</v>
-      </c>
-      <c r="H11" s="55">
-        <v>400</v>
-      </c>
-      <c r="I11" s="56" t="s">
+      <c r="E14" s="105">
+        <v>1</v>
+      </c>
+      <c r="F14" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="55">
-        <v>320</v>
-      </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-    </row>
-    <row r="12" spans="1:14" ht="28.499565" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="52" t="s">
+      <c r="G14" s="105">
+        <v>280</v>
+      </c>
+      <c r="H14" s="105">
+        <v>280</v>
+      </c>
+      <c r="I14" s="107"/>
+      <c r="J14" s="52"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C15" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="105">
+        <v>1</v>
+      </c>
+      <c r="F15" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="55">
-        <v>1</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="55">
-        <v>200</v>
-      </c>
-      <c r="H12" s="55">
-        <v>200</v>
-      </c>
-      <c r="I12" s="55">
-        <v>180</v>
-      </c>
-      <c r="J12" s="55">
-        <v>180</v>
-      </c>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-    </row>
-    <row r="13" spans="1:14" ht="28.499565" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="55">
-        <v>2</v>
-      </c>
-      <c r="F13" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="55">
-        <v>100</v>
-      </c>
-      <c r="H13" s="55">
-        <v>200</v>
-      </c>
-      <c r="I13" s="56" t="s">
+      <c r="G15" s="105">
+        <v>90</v>
+      </c>
+      <c r="H15" s="105">
+        <v>90</v>
+      </c>
+      <c r="I15" s="107"/>
+      <c r="J15" s="52"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="52"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="52"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="55">
-        <v>200</v>
-      </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-    </row>
-    <row r="14" spans="1:14" ht="56.99913" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="55">
-        <v>1</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="55">
-        <v>230</v>
-      </c>
-      <c r="H14" s="55">
-        <v>230</v>
-      </c>
-      <c r="I14" s="55">
-        <v>180</v>
-      </c>
-      <c r="J14" s="55">
-        <v>180</v>
-      </c>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-    </row>
-    <row r="15" spans="1:14" ht="71.24892" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="55">
-        <v>1</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="55">
-        <v>300</v>
-      </c>
-      <c r="H15" s="55">
-        <v>300</v>
-      </c>
-      <c r="I15" s="55">
-        <v>240</v>
-      </c>
-      <c r="J15" s="55">
-        <v>240</v>
-      </c>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C16" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="55">
-        <v>1</v>
-      </c>
-      <c r="F16" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="55">
-        <v>280</v>
-      </c>
-      <c r="H16" s="55">
-        <v>280</v>
-      </c>
-      <c r="I16" s="55">
-        <v>170</v>
-      </c>
-      <c r="J16" s="55">
-        <v>170</v>
-      </c>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C17" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="55">
-        <v>1</v>
-      </c>
-      <c r="F17" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="55">
-        <v>90</v>
-      </c>
-      <c r="H17" s="55">
-        <v>90</v>
-      </c>
-      <c r="I17" s="55">
-        <v>50</v>
-      </c>
-      <c r="J17" s="55">
-        <v>50</v>
-      </c>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
+      <c r="H18" s="104">
+        <v>1670</v>
+      </c>
+      <c r="I18" s="107"/>
       <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
       <c r="I19" s="52"/>
       <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C20" s="52"/>
       <c r="D20" s="52"/>
       <c r="E20" s="52"/>
@@ -1106,12 +1591,8 @@
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
       <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C21" s="52"/>
       <c r="D21" s="52"/>
       <c r="E21" s="52"/>
@@ -1120,12 +1601,8 @@
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
       <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C22" s="52"/>
       <c r="D22" s="52"/>
       <c r="E22" s="52"/>
@@ -1134,12 +1611,8 @@
       <c r="H22" s="52"/>
       <c r="I22" s="52"/>
       <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C23" s="52"/>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
@@ -1148,12 +1621,8 @@
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
       <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
       <c r="E24" s="52"/>
@@ -1162,12 +1631,8 @@
       <c r="H24" s="52"/>
       <c r="I24" s="52"/>
       <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
       <c r="E25" s="52"/>
@@ -1176,12 +1641,8 @@
       <c r="H25" s="52"/>
       <c r="I25" s="52"/>
       <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C26" s="52"/>
       <c r="D26" s="52"/>
       <c r="E26" s="52"/>
@@ -1190,26 +1651,18 @@
       <c r="H26" s="52"/>
       <c r="I26" s="52"/>
       <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C27" s="52"/>
       <c r="D27" s="52"/>
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
       <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
+      <c r="H27" s="55"/>
       <c r="I27" s="52"/>
       <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C28" s="52"/>
       <c r="D28" s="52"/>
       <c r="E28" s="52"/>
@@ -1218,32 +1671,18 @@
       <c r="H28" s="52"/>
       <c r="I28" s="52"/>
       <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
       <c r="E29" s="52"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
-      <c r="H29" s="55">
-        <v>2300</v>
-      </c>
+      <c r="H29" s="52"/>
       <c r="I29" s="52"/>
-      <c r="J29" s="55">
-        <v>1580</v>
-      </c>
-      <c r="K29" s="52"/>
-      <c r="L29" s="55">
-        <v>720</v>
-      </c>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="J29" s="52"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C30" s="52"/>
       <c r="D30" s="52"/>
       <c r="E30" s="52"/>
@@ -1252,12 +1691,8 @@
       <c r="H30" s="52"/>
       <c r="I30" s="52"/>
       <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C31" s="52"/>
       <c r="D31" s="52"/>
       <c r="E31" s="52"/>
@@ -1266,12 +1701,8 @@
       <c r="H31" s="52"/>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C32" s="52"/>
       <c r="D32" s="52"/>
       <c r="E32" s="52"/>
@@ -1280,12 +1711,8 @@
       <c r="H32" s="52"/>
       <c r="I32" s="52"/>
       <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C33" s="52"/>
       <c r="D33" s="52"/>
       <c r="E33" s="52"/>
@@ -1294,12 +1721,8 @@
       <c r="H33" s="52"/>
       <c r="I33" s="52"/>
       <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C34" s="52"/>
       <c r="D34" s="52"/>
       <c r="E34" s="52"/>
@@ -1308,12 +1731,8 @@
       <c r="H34" s="52"/>
       <c r="I34" s="52"/>
       <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C35" s="52"/>
       <c r="D35" s="52"/>
       <c r="E35" s="52"/>
@@ -1322,38 +1741,6 @@
       <c r="H35" s="52"/>
       <c r="I35" s="52"/>
       <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1364,13 +1751,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr showOutlineSymbols="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.000137329101562" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7006068867961253" right="0.7006068867961253" top="0.7519893289551022" bottom="0.7519893289551022" header="0.29926813962891347" footer="0.29926813962891347"/>
@@ -1380,13 +1770,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr showOutlineSymbols="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.000137329101562" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7006068867961253" right="0.7006068867961253" top="0.7519893289551022" bottom="0.7519893289551022" header="0.29926813962891347" footer="0.29926813962891347"/>
